--- a/i_test/test_D6_Table_2/g_output/D6_Table_2_narrow.xlsx
+++ b/i_test/test_D6_Table_2/g_output/D6_Table_2_narrow.xlsx
@@ -392,27 +392,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>471</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -424,27 +424,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>229 (47.1%)</t>
+          <t>210 (46.8%)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123 (44.9%)</t>
+          <t>118 (44.7%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38 (46.3%)</t>
+          <t>36 (47.4%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>227 (45.1%)</t>
+          <t>211 (44.8%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>49 (44.5%)</t>
+          <t>48 (45.3%)</t>
         </is>
       </c>
     </row>
@@ -461,22 +461,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80.5 (9.3)</t>
+          <t>80.6 (9.2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.6 (9.5)</t>
+          <t>79.8 (9.6)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.1 (8.5)</t>
+          <t>81 (8.6)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>81.4 (8)</t>
+          <t>81.5 (8)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2 (0.7%)</t>
+          <t>2 (0.8%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -584,27 +584,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>158 (32.5%)</t>
+          <t>146 (32.5%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>90 (32.8%)</t>
+          <t>88 (33.3%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32 (39%)</t>
+          <t>29 (38.2%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>183 (36.4%)</t>
+          <t>171 (36.3%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>38 (34.5%)</t>
+          <t>36 (34%)</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>317 (65.2%)</t>
+          <t>292 (65%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>176 (64.2%)</t>
+          <t>169 (64%)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>48 (58.5%)</t>
+          <t>45 (59.2%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>308 (61.2%)</t>
+          <t>288 (61.1%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71 (64.5%)</t>
+          <t>69 (65.1%)</t>
         </is>
       </c>
     </row>
